--- a/data/IT-CF-81001210723/ocds.xlsx
+++ b/data/IT-CF-81001210723/ocds.xlsx
@@ -41947,7 +41947,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -43488,7 +43488,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -44627,7 +44627,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -44694,7 +44694,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -45498,7 +45498,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -46235,7 +46235,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -46637,7 +46637,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -46838,7 +46838,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -47374,7 +47374,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -47910,7 +47910,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -48848,7 +48848,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -48915,7 +48915,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -49384,7 +49384,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -49451,7 +49451,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -49518,7 +49518,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -51327,7 +51327,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
@@ -51394,7 +51394,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
@@ -51461,7 +51461,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -51528,7 +51528,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -51662,7 +51662,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -52734,7 +52734,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -52801,7 +52801,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">

--- a/data/IT-CF-81001210723/ocds.xlsx
+++ b/data/IT-CF-81001210723/ocds.xlsx
@@ -41237,7 +41237,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -41304,7 +41304,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -41371,7 +41371,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -41438,7 +41438,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -41505,7 +41505,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -41572,7 +41572,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -41639,7 +41639,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -41706,7 +41706,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -41773,7 +41773,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -41840,7 +41840,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -41907,7 +41907,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -41974,7 +41974,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -42041,7 +42041,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -42108,7 +42108,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -42175,7 +42175,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -42242,7 +42242,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -42309,7 +42309,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -42376,7 +42376,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -42443,7 +42443,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -42510,7 +42510,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -42577,7 +42577,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -42644,7 +42644,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -42711,7 +42711,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -42778,7 +42778,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -42845,7 +42845,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -42912,7 +42912,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -42979,7 +42979,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -43046,7 +43046,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -43113,7 +43113,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -43180,7 +43180,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -43247,7 +43247,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -43314,7 +43314,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -43381,7 +43381,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -43448,7 +43448,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -43515,7 +43515,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -43582,7 +43582,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -43649,7 +43649,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -43716,7 +43716,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -43783,7 +43783,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -43850,7 +43850,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -43917,7 +43917,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -43984,7 +43984,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -44051,7 +44051,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -44118,7 +44118,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -44185,7 +44185,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -44252,7 +44252,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -44319,7 +44319,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -44386,7 +44386,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -44453,7 +44453,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -44520,7 +44520,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -44587,7 +44587,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -44654,7 +44654,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -44721,7 +44721,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -44788,7 +44788,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -44855,7 +44855,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -44922,7 +44922,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -44989,7 +44989,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -45056,7 +45056,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -45123,7 +45123,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -45190,7 +45190,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -45257,7 +45257,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -45324,7 +45324,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -45391,7 +45391,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -45458,7 +45458,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -45525,7 +45525,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -45592,7 +45592,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -45659,7 +45659,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -45726,7 +45726,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -45793,7 +45793,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -45860,7 +45860,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -45927,7 +45927,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -45994,7 +45994,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -46061,7 +46061,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -46128,7 +46128,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -46195,7 +46195,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -46262,7 +46262,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -46329,7 +46329,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -46396,7 +46396,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -46463,7 +46463,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -46530,7 +46530,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -46597,7 +46597,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -46664,7 +46664,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -46731,7 +46731,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -46798,7 +46798,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -46865,7 +46865,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -46932,7 +46932,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -46999,7 +46999,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -47066,7 +47066,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -47133,7 +47133,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -47200,7 +47200,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -47267,7 +47267,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -47334,7 +47334,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -47401,7 +47401,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -47468,7 +47468,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -47535,7 +47535,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -47602,7 +47602,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -47669,7 +47669,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -47736,7 +47736,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -47803,7 +47803,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -47870,7 +47870,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -47937,7 +47937,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -48004,7 +48004,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -48071,7 +48071,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -48138,7 +48138,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -48205,7 +48205,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -48272,7 +48272,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -48339,7 +48339,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -48406,7 +48406,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -48473,7 +48473,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -48540,7 +48540,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -48607,7 +48607,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -48674,7 +48674,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -48741,7 +48741,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -48808,7 +48808,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -48875,7 +48875,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -48942,7 +48942,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -49009,7 +49009,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -49076,7 +49076,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -49143,7 +49143,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -49210,7 +49210,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -49277,7 +49277,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -49344,7 +49344,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -49411,7 +49411,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -49478,7 +49478,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -49545,7 +49545,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -49612,7 +49612,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -49679,7 +49679,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -49746,7 +49746,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -49813,7 +49813,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -49880,7 +49880,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -49947,7 +49947,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -50014,7 +50014,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -50081,7 +50081,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -50148,7 +50148,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -50215,7 +50215,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -50282,7 +50282,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -50349,7 +50349,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -50416,7 +50416,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -50483,7 +50483,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -50550,7 +50550,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -50617,7 +50617,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -50684,7 +50684,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -50751,7 +50751,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -50818,7 +50818,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -50885,7 +50885,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -50952,7 +50952,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -51019,7 +51019,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -51086,7 +51086,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -51153,7 +51153,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -51220,7 +51220,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -51287,7 +51287,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -51354,7 +51354,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -51421,7 +51421,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -51488,7 +51488,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -51555,7 +51555,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -51622,7 +51622,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -51689,7 +51689,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -51756,7 +51756,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -51823,7 +51823,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -51890,7 +51890,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -51957,7 +51957,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -52024,7 +52024,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -52091,7 +52091,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -52158,7 +52158,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -52225,7 +52225,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -52292,7 +52292,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -52359,7 +52359,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -52426,7 +52426,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -52493,7 +52493,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -52560,7 +52560,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -52627,7 +52627,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -52694,7 +52694,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -52761,7 +52761,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -52828,7 +52828,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -52895,7 +52895,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -52962,7 +52962,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -53029,7 +53029,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -53096,7 +53096,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -53163,7 +53163,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -53230,7 +53230,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -53297,7 +53297,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -53364,7 +53364,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -53431,7 +53431,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -53498,7 +53498,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -53565,7 +53565,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -53632,7 +53632,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -53699,7 +53699,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
